--- a/Financials/FICO.xlsx
+++ b/Financials/FICO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4877C4C-2532-5143-AD80-359016035C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE01AE2-E200-2540-BB2F-704712C9CC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1939,11 +1939,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>2103.6999999999998</v>
+    <v>2188.9299999999998</v>
     <v>900.01</v>
-    <v>1.3312999999999999</v>
-    <v>74.7</v>
-    <v>3.7169000000000001E-2</v>
+    <v>1.3279000000000001</v>
+    <v>86.09</v>
+    <v>4.1178999999999993E-2</v>
+    <v>4.9000000000000004</v>
+    <v>2.2520000000000001E-3</v>
     <v>USD</v>
     <v>Fair Isaac Corporation is a predictive analytics and decision management software company. The Company operates through its two segments: Scores and Software. The Scores segment includes the Company's business-to-business scoring solutions and services which give its clients access to predictive credit and other scores. This segment includes its business-to-consumer scoring solutions, including its myFICO.com subscription offerings. The Software segment includes pre-configured analytic and decision management solutions designed for a specific type of business need or process, such as account origination, customer management, customer engagement, fraud detection and marketing as well as associated professional services. This segment includes FICO Platform, a modular software offering designed to support advanced analytic and decision use cases as well as stand-alone analytic and decisioning software. Its products include FICO Analytics Workbench, FICO Fraud Solutions and FICO Advisors.</v>
     <v>3588</v>
@@ -1951,24 +1953,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5 West Mendenhall, Suites 105, BOZEMAN, MT, 59715 US</v>
-    <v>2098.34</v>
+    <v>2188.9299999999998</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45602.971447568751</v>
+    <v>45604.028023622654</v>
     <v>0</v>
-    <v>2042.48</v>
-    <v>51107649858</v>
+    <v>2036.6501000000001</v>
+    <v>53369974621</v>
     <v>FAIR ISAAC CORPORATION</v>
     <v>FAIR ISAAC CORPORATION</v>
-    <v>2059</v>
-    <v>109.90940000000001</v>
-    <v>2009.75</v>
-    <v>2084.4499999999998</v>
+    <v>2123.84</v>
+    <v>106.4054</v>
+    <v>2090.63</v>
+    <v>2176.7199999999998</v>
+    <v>2181</v>
     <v>24518530</v>
     <v>FICO</v>
     <v>FAIR ISAAC CORPORATION (XNYS:FICO)</v>
-    <v>7</v>
-    <v>143098</v>
+    <v>344242</v>
+    <v>148205</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2000,6 +2003,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2020,6 +2025,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2036,7 +2042,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2047,13 +2053,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2119,13 +2128,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2170,6 +2185,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2177,6 +2195,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2877,14 +2898,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>2084.4499999999998</v>
+        <v>2176.7199999999998</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>29.817765378063012</v>
+        <v>31.13767480805134</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2924,14 +2945,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.7169000000000001E-2</v>
+        <v>4.1178999999999993E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>86.184907011804384</v>
+        <v>89.999957202360875</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2972,14 +2993,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>51107649858</v>
+        <v>53369974621</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>1.4107477099871776E-2</v>
+        <v>1.3509468668855263E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3021,7 +3042,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.3312999999999999</v>
+        <v>1.3279000000000001</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3054,7 +3075,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.5678639862623388</v>
+        <v>-0.58618200143543131</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Financials/FICO.xlsx
+++ b/Financials/FICO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE01AE2-E200-2540-BB2F-704712C9CC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A7290D-1845-234E-A628-4F3724B29251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1939,39 +1939,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>2188.9299999999998</v>
-    <v>900.01</v>
-    <v>1.3279000000000001</v>
-    <v>86.09</v>
-    <v>4.1178999999999993E-2</v>
-    <v>4.9000000000000004</v>
-    <v>2.2520000000000001E-3</v>
+    <v>2402.5149999999999</v>
+    <v>1037.55</v>
+    <v>1.3419000000000001</v>
+    <v>12.12</v>
+    <v>5.3340000000000002E-3</v>
+    <v>3.37</v>
+    <v>1.475E-3</v>
     <v>USD</v>
     <v>Fair Isaac Corporation is a predictive analytics and decision management software company. The Company operates through its two segments: Scores and Software. The Scores segment includes the Company's business-to-business scoring solutions and services which give its clients access to predictive credit and other scores. This segment includes its business-to-consumer scoring solutions, including its myFICO.com subscription offerings. The Software segment includes pre-configured analytic and decision management solutions designed for a specific type of business need or process, such as account origination, customer management, customer engagement, fraud detection and marketing as well as associated professional services. This segment includes FICO Platform, a modular software offering designed to support advanced analytic and decision use cases as well as stand-alone analytic and decisioning software. Its products include FICO Analytics Workbench, FICO Fraud Solutions and FICO Advisors.</v>
-    <v>3588</v>
+    <v>3586</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5 West Mendenhall, Suites 105, BOZEMAN, MT, 59715 US</v>
-    <v>2188.9299999999998</v>
+    <v>2304.52</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45604.028023622654</v>
+    <v>45616.004849582816</v>
     <v>0</v>
-    <v>2036.6501000000001</v>
-    <v>53369974621</v>
+    <v>2252.27</v>
+    <v>55621073196</v>
     <v>FAIR ISAAC CORPORATION</v>
     <v>FAIR ISAAC CORPORATION</v>
-    <v>2123.84</v>
-    <v>106.4054</v>
-    <v>2090.63</v>
-    <v>2176.7199999999998</v>
-    <v>2181</v>
-    <v>24518530</v>
+    <v>2252.27</v>
+    <v>111.7026</v>
+    <v>2272.31</v>
+    <v>2284.4299999999998</v>
+    <v>2287.8000000000002</v>
+    <v>24347900</v>
     <v>FICO</v>
     <v>FAIR ISAAC CORPORATION (XNYS:FICO)</v>
-    <v>344242</v>
-    <v>148205</v>
+    <v>130295</v>
+    <v>161009</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2136,9 +2136,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2865,7 +2865,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2898,14 +2898,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>2176.7199999999998</v>
+        <v>2284.4299999999998</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>31.13767480805134</v>
+        <v>32.451034536756126</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="G3" s="45" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_FV(A1,"Shares outstanding",TRUE)*(1+(5*C6))</f>
-        <v>18503802.35276255</v>
+        <v>18375030.203883648</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
@@ -2945,14 +2945,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>4.1178999999999993E-2</v>
+        <v>5.3340000000000002E-3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>89.999957202360875</v>
+        <v>93.796076215851599</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2993,14 +2993,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>53369974621</v>
+        <v>55621073196</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>1.3509468668855263E-2</v>
+        <v>1.2962712845530834E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="K5" s="47">
         <f ca="1">I5/G3</f>
-        <v>900.76591383546781</v>
+        <v>907.07847828159015</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>11</v>
@@ -3042,7 +3042,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.3279000000000001</v>
+        <v>1.3419000000000001</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.58618200143543131</v>
+        <v>-0.60293006208043565</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
